--- a/biology/Médecine/Hôpital_de_Laakso/Hôpital_de_Laakso.xlsx
+++ b/biology/Médecine/Hôpital_de_Laakso/Hôpital_de_Laakso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Laakso</t>
+          <t>Hôpital_de_Laakso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital de Laakso (en finnois : Laakson sairaala) est un hôpital du HUS situé dans le quartier de Laakso à Helsinki en Finlande. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Laakso</t>
+          <t>Hôpital_de_Laakso</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital de Laakso est spécialisé en neurologie. 
 Il compte 13 services, un service d'hospitalisation à domicile, une polyclinique de neurologie et la Maison médicale de Laakso.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Laakso</t>
+          <t>Hôpital_de_Laakso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital est construit dans les années 1920 pour soigner la tuberculose à partir de  1929. 
 Les bâtiments sont conçus par Eino Forsman et ils ont gardé leur aspect d'origine.
-Le bâtiment principal est mis en service en 1930, les autres bâtiments entrent en service jusqu'en 1938[1],[2].
+Le bâtiment principal est mis en service en 1930, les autres bâtiments entrent en service jusqu'en 1938,.
 </t>
         </is>
       </c>
